--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ntf3-Ngfr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ntf3-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ntf3</t>
   </si>
   <si>
     <t>Ngfr</t>
   </si>
   <si>
-    <t>sCs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.88609529217408</v>
+        <v>8.859944</v>
       </c>
       <c r="H2">
-        <v>7.88609529217408</v>
+        <v>26.579832</v>
       </c>
       <c r="I2">
-        <v>0.5791527404123867</v>
+        <v>0.4921128329655918</v>
       </c>
       <c r="J2">
-        <v>0.5791527404123867</v>
+        <v>0.4921128329655918</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.775520110997425</v>
+        <v>0.21127</v>
       </c>
       <c r="N2">
-        <v>0.775520110997425</v>
+        <v>0.63381</v>
       </c>
       <c r="O2">
-        <v>0.3377817307380465</v>
+        <v>0.07354932682191852</v>
       </c>
       <c r="P2">
-        <v>0.3377817307380465</v>
+        <v>0.07354932682191852</v>
       </c>
       <c r="Q2">
-        <v>6.115825496323113</v>
+        <v>1.87184036888</v>
       </c>
       <c r="R2">
-        <v>6.115825496323113</v>
+        <v>16.84656331992</v>
       </c>
       <c r="S2">
-        <v>0.1956272150181785</v>
+        <v>0.03619456758504651</v>
       </c>
       <c r="T2">
-        <v>0.1956272150181785</v>
+        <v>0.03619456758504651</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,185 +584,681 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.88609529217408</v>
+        <v>8.859944</v>
       </c>
       <c r="H3">
-        <v>7.88609529217408</v>
+        <v>26.579832</v>
       </c>
       <c r="I3">
-        <v>0.5791527404123867</v>
+        <v>0.4921128329655918</v>
       </c>
       <c r="J3">
-        <v>0.5791527404123867</v>
+        <v>0.4921128329655918</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.52040071723366</v>
+        <v>0.7775033333333333</v>
       </c>
       <c r="N3">
-        <v>1.52040071723366</v>
+        <v>2.33251</v>
       </c>
       <c r="O3">
-        <v>0.6622182692619535</v>
+        <v>0.2706718737561622</v>
       </c>
       <c r="P3">
-        <v>0.6622182692619535</v>
+        <v>0.2706718737561623</v>
       </c>
       <c r="Q3">
-        <v>11.99002493839446</v>
+        <v>6.888635993146667</v>
       </c>
       <c r="R3">
-        <v>11.99002493839446</v>
+        <v>61.99772393832</v>
       </c>
       <c r="S3">
-        <v>0.3835255253942081</v>
+        <v>0.13320110259825</v>
       </c>
       <c r="T3">
-        <v>0.3835255253942081</v>
+        <v>0.13320110259825</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.73051176481536</v>
+        <v>8.859944</v>
       </c>
       <c r="H4">
-        <v>5.73051176481536</v>
+        <v>26.579832</v>
       </c>
       <c r="I4">
-        <v>0.4208472595876132</v>
+        <v>0.4921128329655918</v>
       </c>
       <c r="J4">
-        <v>0.4208472595876132</v>
+        <v>0.4921128329655918</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.775520110997425</v>
+        <v>0.02353866666666667</v>
       </c>
       <c r="N4">
-        <v>0.775520110997425</v>
+        <v>0.070616</v>
       </c>
       <c r="O4">
-        <v>0.3377817307380465</v>
+        <v>0.008194505077005093</v>
       </c>
       <c r="P4">
-        <v>0.3377817307380465</v>
+        <v>0.008194505077005093</v>
       </c>
       <c r="Q4">
-        <v>4.444127119921658</v>
+        <v>0.2085512685013333</v>
       </c>
       <c r="R4">
-        <v>4.444127119921658</v>
+        <v>1.876961416512</v>
       </c>
       <c r="S4">
-        <v>0.1421545157198679</v>
+        <v>0.004032621108195901</v>
       </c>
       <c r="T4">
-        <v>0.1421545157198679</v>
+        <v>0.004032621108195901</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>8.859944</v>
+      </c>
+      <c r="H5">
+        <v>26.579832</v>
+      </c>
+      <c r="I5">
+        <v>0.4921128329655918</v>
+      </c>
+      <c r="J5">
+        <v>0.4921128329655918</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.860182</v>
+      </c>
+      <c r="N5">
+        <v>5.580546</v>
+      </c>
+      <c r="O5">
+        <v>0.6475842943449143</v>
+      </c>
+      <c r="P5">
+        <v>0.6475842943449143</v>
+      </c>
+      <c r="Q5">
+        <v>16.481108349808</v>
+      </c>
+      <c r="R5">
+        <v>148.329975148272</v>
+      </c>
+      <c r="S5">
+        <v>0.3186845416740994</v>
+      </c>
+      <c r="T5">
+        <v>0.3186845416740994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5.867977666666667</v>
+      </c>
+      <c r="H6">
+        <v>17.603933</v>
+      </c>
+      <c r="I6">
+        <v>0.3259283708025871</v>
+      </c>
+      <c r="J6">
+        <v>0.3259283708025871</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.21127</v>
+      </c>
+      <c r="N6">
+        <v>0.63381</v>
+      </c>
+      <c r="O6">
+        <v>0.07354932682191852</v>
+      </c>
+      <c r="P6">
+        <v>0.07354932682191852</v>
+      </c>
+      <c r="Q6">
+        <v>1.239727641636667</v>
+      </c>
+      <c r="R6">
+        <v>11.15754877473</v>
+      </c>
+      <c r="S6">
+        <v>0.02397181226469492</v>
+      </c>
+      <c r="T6">
+        <v>0.02397181226469492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.867977666666667</v>
+      </c>
+      <c r="H7">
+        <v>17.603933</v>
+      </c>
+      <c r="I7">
+        <v>0.3259283708025871</v>
+      </c>
+      <c r="J7">
+        <v>0.3259283708025871</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7775033333333333</v>
+      </c>
+      <c r="N7">
+        <v>2.33251</v>
+      </c>
+      <c r="O7">
+        <v>0.2706718737561622</v>
+      </c>
+      <c r="P7">
+        <v>0.2706718737561623</v>
+      </c>
+      <c r="Q7">
+        <v>4.56237219575889</v>
+      </c>
+      <c r="R7">
+        <v>41.06134976183</v>
+      </c>
+      <c r="S7">
+        <v>0.08821964283542946</v>
+      </c>
+      <c r="T7">
+        <v>0.08821964283542949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.867977666666667</v>
+      </c>
+      <c r="H8">
+        <v>17.603933</v>
+      </c>
+      <c r="I8">
+        <v>0.3259283708025871</v>
+      </c>
+      <c r="J8">
+        <v>0.3259283708025871</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.02353866666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.070616</v>
+      </c>
+      <c r="O8">
+        <v>0.008194505077005093</v>
+      </c>
+      <c r="P8">
+        <v>0.008194505077005093</v>
+      </c>
+      <c r="Q8">
+        <v>0.1381243703031111</v>
+      </c>
+      <c r="R8">
+        <v>1.243119332728</v>
+      </c>
+      <c r="S8">
+        <v>0.002670821689281798</v>
+      </c>
+      <c r="T8">
+        <v>0.002670821689281798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.867977666666667</v>
+      </c>
+      <c r="H9">
+        <v>17.603933</v>
+      </c>
+      <c r="I9">
+        <v>0.3259283708025871</v>
+      </c>
+      <c r="J9">
+        <v>0.3259283708025871</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.860182</v>
+      </c>
+      <c r="N9">
+        <v>5.580546</v>
+      </c>
+      <c r="O9">
+        <v>0.6475842943449143</v>
+      </c>
+      <c r="P9">
+        <v>0.6475842943449143</v>
+      </c>
+      <c r="Q9">
+        <v>10.91550643193533</v>
+      </c>
+      <c r="R9">
+        <v>98.239557887418</v>
+      </c>
+      <c r="S9">
+        <v>0.2110660940131809</v>
+      </c>
+      <c r="T9">
+        <v>0.2110660940131809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>5.73051176481536</v>
-      </c>
-      <c r="H5">
-        <v>5.73051176481536</v>
-      </c>
-      <c r="I5">
-        <v>0.4208472595876132</v>
-      </c>
-      <c r="J5">
-        <v>0.4208472595876132</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.52040071723366</v>
-      </c>
-      <c r="N5">
-        <v>1.52040071723366</v>
-      </c>
-      <c r="O5">
-        <v>0.6622182692619535</v>
-      </c>
-      <c r="P5">
-        <v>0.6622182692619535</v>
-      </c>
-      <c r="Q5">
-        <v>8.712674197341201</v>
-      </c>
-      <c r="R5">
-        <v>8.712674197341201</v>
-      </c>
-      <c r="S5">
-        <v>0.2786927438677452</v>
-      </c>
-      <c r="T5">
-        <v>0.2786927438677452</v>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>3.275965666666667</v>
+      </c>
+      <c r="H10">
+        <v>9.827897</v>
+      </c>
+      <c r="I10">
+        <v>0.1819587962318212</v>
+      </c>
+      <c r="J10">
+        <v>0.1819587962318212</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.21127</v>
+      </c>
+      <c r="N10">
+        <v>0.63381</v>
+      </c>
+      <c r="O10">
+        <v>0.07354932682191852</v>
+      </c>
+      <c r="P10">
+        <v>0.07354932682191852</v>
+      </c>
+      <c r="Q10">
+        <v>0.6921132663966666</v>
+      </c>
+      <c r="R10">
+        <v>6.22901939757</v>
+      </c>
+      <c r="S10">
+        <v>0.01338294697217709</v>
+      </c>
+      <c r="T10">
+        <v>0.01338294697217709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>3.275965666666667</v>
+      </c>
+      <c r="H11">
+        <v>9.827897</v>
+      </c>
+      <c r="I11">
+        <v>0.1819587962318212</v>
+      </c>
+      <c r="J11">
+        <v>0.1819587962318212</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.7775033333333333</v>
+      </c>
+      <c r="N11">
+        <v>2.33251</v>
+      </c>
+      <c r="O11">
+        <v>0.2706718737561622</v>
+      </c>
+      <c r="P11">
+        <v>0.2706718737561623</v>
+      </c>
+      <c r="Q11">
+        <v>2.547074225718889</v>
+      </c>
+      <c r="R11">
+        <v>22.92366803147</v>
+      </c>
+      <c r="S11">
+        <v>0.04925112832248275</v>
+      </c>
+      <c r="T11">
+        <v>0.04925112832248275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>3.275965666666667</v>
+      </c>
+      <c r="H12">
+        <v>9.827897</v>
+      </c>
+      <c r="I12">
+        <v>0.1819587962318212</v>
+      </c>
+      <c r="J12">
+        <v>0.1819587962318212</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02353866666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.070616</v>
+      </c>
+      <c r="O12">
+        <v>0.008194505077005093</v>
+      </c>
+      <c r="P12">
+        <v>0.008194505077005093</v>
+      </c>
+      <c r="Q12">
+        <v>0.0771118638391111</v>
+      </c>
+      <c r="R12">
+        <v>0.694006774552</v>
+      </c>
+      <c r="S12">
+        <v>0.001491062279527394</v>
+      </c>
+      <c r="T12">
+        <v>0.001491062279527394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>3.275965666666667</v>
+      </c>
+      <c r="H13">
+        <v>9.827897</v>
+      </c>
+      <c r="I13">
+        <v>0.1819587962318212</v>
+      </c>
+      <c r="J13">
+        <v>0.1819587962318212</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.860182</v>
+      </c>
+      <c r="N13">
+        <v>5.580546</v>
+      </c>
+      <c r="O13">
+        <v>0.6475842943449143</v>
+      </c>
+      <c r="P13">
+        <v>0.6475842943449143</v>
+      </c>
+      <c r="Q13">
+        <v>6.093892365751334</v>
+      </c>
+      <c r="R13">
+        <v>54.845031291762</v>
+      </c>
+      <c r="S13">
+        <v>0.117833658657634</v>
+      </c>
+      <c r="T13">
+        <v>0.117833658657634</v>
       </c>
     </row>
   </sheetData>
